--- a/TP2/graficos/ejercicio1/input/Ej1_Bodes/Inversor_G0.1_OK.xlsx
+++ b/TP2/graficos/ejercicio1/input/Ej1_Bodes/Inversor_G0.1_OK.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">offset</t>
   </si>
   <si>
-    <t xml:space="preserve">amp usada vpp</t>
+    <t xml:space="preserve">amp usada</t>
   </si>
   <si>
     <t xml:space="preserve">ratio</t>
@@ -171,13 +171,13 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.55"/>

--- a/TP2/graficos/ejercicio1/input/Ej1_Bodes/Inversor_G0.1_OK.xlsx
+++ b/TP2/graficos/ejercicio1/input/Ej1_Bodes/Inversor_G0.1_OK.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">offset</t>
   </si>
   <si>
-    <t xml:space="preserve">amp usada</t>
+    <t xml:space="preserve">amp usada vpp</t>
   </si>
   <si>
     <t xml:space="preserve">ratio</t>
@@ -171,13 +171,12 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.55"/>
@@ -225,10 +224,11 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="1"/>
@@ -260,11 +260,12 @@
       <c r="H3" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="1"/>
+      <c r="J3" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <f aca="false">(F3*12000)/(F3-I3)</f>
+      <c r="K3" s="1" t="n">
+        <f aca="false">(F3*12000)/(F3-J3)</f>
         <v>12187.5</v>
       </c>
       <c r="N3" s="1"/>
@@ -296,11 +297,12 @@
       <c r="H4" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="1"/>
+      <c r="J4" s="3" t="n">
         <v>0.045</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <f aca="false">(F4*12000)/(F4-I4)</f>
+      <c r="K4" s="1" t="n">
+        <f aca="false">(F4*12000)/(F4-J4)</f>
         <v>12430.2788844622</v>
       </c>
       <c r="N4" s="1"/>
@@ -332,11 +334,12 @@
       <c r="H5" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="1"/>
+      <c r="J5" s="3" t="n">
         <v>0.087</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">(F5*12000)/(F5-I5)</f>
+      <c r="K5" s="1" t="n">
+        <f aca="false">(F5*12000)/(F5-J5)</f>
         <v>12860.6760098928</v>
       </c>
       <c r="N5" s="1"/>
@@ -368,11 +371,12 @@
       <c r="H6" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="1"/>
+      <c r="J6" s="3" t="n">
         <v>0.132</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">(F6*12000)/(F6-I6)</f>
+      <c r="K6" s="1" t="n">
+        <f aca="false">(F6*12000)/(F6-J6)</f>
         <v>13356.1643835616</v>
       </c>
       <c r="N6" s="1"/>
@@ -404,11 +408,12 @@
       <c r="H7" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="1"/>
+      <c r="J7" s="3" t="n">
         <v>0.131</v>
       </c>
-      <c r="J7" s="1" t="n">
-        <f aca="false">(F7*12000)/(F7-I7)</f>
+      <c r="K7" s="1" t="n">
+        <f aca="false">(F7*12000)/(F7-J7)</f>
         <v>13344.7390932421</v>
       </c>
       <c r="N7" s="1"/>
@@ -440,11 +445,12 @@
       <c r="H8" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="1"/>
+      <c r="J8" s="3" t="n">
         <v>0.135</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <f aca="false">(F8*12000)/(F8-I8)</f>
+      <c r="K8" s="1" t="n">
+        <f aca="false">(F8*12000)/(F8-J8)</f>
         <v>13390.5579399142</v>
       </c>
       <c r="N8" s="1"/>
@@ -476,11 +482,12 @@
       <c r="H9" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="1"/>
+      <c r="J9" s="3" t="n">
         <v>0.134</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <f aca="false">(F9*12000)/(F9-I9)</f>
+      <c r="K9" s="1" t="n">
+        <f aca="false">(F9*12000)/(F9-J9)</f>
         <v>13379.0737564322</v>
       </c>
       <c r="N9" s="1"/>
@@ -512,11 +519,12 @@
       <c r="H10" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="1"/>
+      <c r="J10" s="3" t="n">
         <v>0.132</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <f aca="false">(F10*12000)/(F10-I10)</f>
+      <c r="K10" s="1" t="n">
+        <f aca="false">(F10*12000)/(F10-J10)</f>
         <v>13356.1643835616</v>
       </c>
       <c r="N10" s="1"/>
@@ -548,11 +556,12 @@
       <c r="H11" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="1"/>
+      <c r="J11" s="3" t="n">
         <v>0.13</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <f aca="false">(F11*12000)/(F11-I11)</f>
+      <c r="K11" s="1" t="n">
+        <f aca="false">(F11*12000)/(F11-J11)</f>
         <v>13333.3333333333</v>
       </c>
       <c r="N11" s="1"/>
@@ -584,11 +593,12 @@
       <c r="H12" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="1"/>
+      <c r="J12" s="3" t="n">
         <v>0.128</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <f aca="false">(F12*12000)/(F12-I12)</f>
+      <c r="K12" s="1" t="n">
+        <f aca="false">(F12*12000)/(F12-J12)</f>
         <v>13310.5802047782</v>
       </c>
       <c r="N12" s="1"/>
@@ -620,11 +630,12 @@
       <c r="H13" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="1"/>
+      <c r="J13" s="3" t="n">
         <v>0.127</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <f aca="false">(F13*12000)/(F13-I13)</f>
+      <c r="K13" s="1" t="n">
+        <f aca="false">(F13*12000)/(F13-J13)</f>
         <v>13299.2327365729</v>
       </c>
       <c r="N13" s="1"/>
@@ -656,11 +667,12 @@
       <c r="H14" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="1"/>
+      <c r="J14" s="3" t="n">
         <v>0.12</v>
       </c>
-      <c r="J14" s="1" t="n">
-        <f aca="false">(F14*12000)/(F14-I14)</f>
+      <c r="K14" s="1" t="n">
+        <f aca="false">(F14*12000)/(F14-J14)</f>
         <v>13220.3389830508</v>
       </c>
       <c r="N14" s="1"/>
@@ -692,11 +704,12 @@
       <c r="H15" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="1"/>
+      <c r="J15" s="3" t="n">
         <v>0.112</v>
       </c>
-      <c r="J15" s="1" t="n">
-        <f aca="false">(F15*12000)/(F15-I15)</f>
+      <c r="K15" s="1" t="n">
+        <f aca="false">(F15*12000)/(F15-J15)</f>
         <v>13131.3131313131</v>
       </c>
       <c r="N15" s="1"/>
